--- a/rapport/rapport_ihm.xlsx
+++ b/rapport/rapport_ihm.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.7976718296779319</v>
+        <v>1.835123164180666</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.7976718296779319</v>
+        <v>1.835123164180666</v>
       </c>
     </row>
     <row r="3">
@@ -488,10 +488,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7976718296779319</v>
+        <v>0.9234578654525802</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/deals?ref_=nav_cs_gb</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>66</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.278420568435639</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/deal/3a51f27b?showVariations=true&amp;pf_rd_r=JTA1B547JDKMBK143S96&amp;pf_rd_t=Events&amp;pf_rd_i=deals&amp;pf_rd_p=3c3f3ff2-f80e-428b-aff0-b0531c852487&amp;pf_rd_s=slot-14&amp;ref=dlx_deals_gd_dcl_img_1_3a51f27b_dt_sl14_87</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>69</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.599036199888587</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/gp/your-account/order-history?ref_=ya_d_c_yo</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>79</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.835123164180666</v>
       </c>
     </row>
   </sheetData>

--- a/rapport/rapport_ihm.xlsx
+++ b/rapport/rapport_ihm.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Cas de test 2</t>
+          <t>Cas de test 1</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -466,11 +466,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cas de test 2</t>
+          <t>Cas de test 1</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.835123164180666</v>
+        <v>3.668316228261497</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -478,59 +478,130 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1.835123164180666</v>
+        <v>5.356121928268019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/</t>
+          <t>https://www.ausy.fr/fr/</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9234578654525802</v>
+        <v>3.151041094044596</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Cas de test 2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1.687805700006522</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/deals?ref_=nav_cs_gb</t>
+          <t>https://www.ausy.fr/fr/carrieres/</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C4" t="n">
-        <v>1.278420568435639</v>
+        <v>3.415620132068172</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/deal/3a51f27b?showVariations=true&amp;pf_rd_r=JTA1B547JDKMBK143S96&amp;pf_rd_t=Events&amp;pf_rd_i=deals&amp;pf_rd_p=3c3f3ff2-f80e-428b-aff0-b0531c852487&amp;pf_rd_s=slot-14&amp;ref=dlx_deals_gd_dcl_img_1_3a51f27b_dt_sl14_87</t>
+          <t>https://www.ausy.fr/fr/carrieres/toutes-nos-offres/q-auto/</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C5" t="n">
-        <v>1.599036199888587</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+        <v>3.668316228261497</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Cas de test 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Propreté (en %)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Consommation de CO2 (en g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>36</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7976718296779319</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/deals?ref_=nav_cs_gb</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>66</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.150309954035468</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.fr/deal/3a51f27b?showVariations=true&amp;pf_rd_r=AW6MJV6KCYCK3YT21XYQ&amp;pf_rd_t=Events&amp;pf_rd_i=deals&amp;pf_rd_p=3c3f3ff2-f80e-428b-aff0-b0531c852487&amp;pf_rd_s=slot-14&amp;ref=dlx_deals_gd_dcl_img_1_3a51f27b_dt_sl14_87</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>71</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.452404730597977</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>https://www.amazon.fr/gp/your-account/order-history?ref_=ya_d_c_yo</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B12" t="n">
         <v>79</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.835123164180666</v>
+      <c r="C12" t="n">
+        <v>1.687805700006522</v>
       </c>
     </row>
   </sheetData>

--- a/rapport/rapport_ihm.xlsx
+++ b/rapport/rapport_ihm.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.668316228261497</v>
+        <v>3.668294830255955</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5.356121928268019</v>
+        <v>5.503417994436622</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>3.151041094044596</v>
+        <v>3.151019696039055</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.687805700006522</v>
+        <v>1.835123164180666</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         <v>71</v>
       </c>
       <c r="C4" t="n">
-        <v>3.415620132068172</v>
+        <v>3.415598734062631</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>73</v>
       </c>
       <c r="C5" t="n">
-        <v>3.668316228261497</v>
+        <v>3.668294830255955</v>
       </c>
     </row>
     <row r="7">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7976718296779319</v>
+        <v>0.9234578654525802</v>
       </c>
     </row>
     <row r="10">
@@ -575,20 +575,20 @@
         <v>66</v>
       </c>
       <c r="C10" t="n">
-        <v>1.150309954035468</v>
+        <v>1.278420568435639</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/deal/3a51f27b?showVariations=true&amp;pf_rd_r=AW6MJV6KCYCK3YT21XYQ&amp;pf_rd_t=Events&amp;pf_rd_i=deals&amp;pf_rd_p=3c3f3ff2-f80e-428b-aff0-b0531c852487&amp;pf_rd_s=slot-14&amp;ref=dlx_deals_gd_dcl_img_1_3a51f27b_dt_sl14_87</t>
+          <t>https://www.amazon.fr/deal/3a51f27b?showVariations=true&amp;pf_rd_r=T3GSZHEFQXDA5XX4QJX2&amp;pf_rd_t=Events&amp;pf_rd_i=deals&amp;pf_rd_p=3c3f3ff2-f80e-428b-aff0-b0531c852487&amp;pf_rd_s=slot-14&amp;ref=dlx_deals_gd_dcl_img_1_3a51f27b_dt_sl14_87</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" t="n">
-        <v>1.452404730597977</v>
+        <v>1.599036199888587</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>79</v>
       </c>
       <c r="C12" t="n">
-        <v>1.687805700006522</v>
+        <v>1.835123164180666</v>
       </c>
     </row>
   </sheetData>

--- a/rapport/rapport_ihm.xlsx
+++ b/rapport/rapport_ihm.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.668294830255955</v>
+        <v>3.66891436545169</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5.503417994436622</v>
+        <v>5.588146040660888</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>3.151019696039055</v>
+        <v>3.151614812334348</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.835123164180666</v>
+        <v>1.919231675209198</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         <v>71</v>
       </c>
       <c r="C4" t="n">
-        <v>3.415598734062631</v>
+        <v>3.416220283188299</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>73</v>
       </c>
       <c r="C5" t="n">
-        <v>3.668294830255955</v>
+        <v>3.66891436545169</v>
       </c>
     </row>
     <row r="7">
@@ -562,7 +562,7 @@
         <v>32</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9234578654525802</v>
+        <v>0.903385781031009</v>
       </c>
     </row>
     <row r="10">
@@ -575,20 +575,20 @@
         <v>66</v>
       </c>
       <c r="C10" t="n">
-        <v>1.278420568435639</v>
+        <v>1.258348484014068</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.amazon.fr/deal/3a51f27b?showVariations=true&amp;pf_rd_r=T3GSZHEFQXDA5XX4QJX2&amp;pf_rd_t=Events&amp;pf_rd_i=deals&amp;pf_rd_p=3c3f3ff2-f80e-428b-aff0-b0531c852487&amp;pf_rd_s=slot-14&amp;ref=dlx_deals_gd_dcl_img_1_3a51f27b_dt_sl14_87</t>
+          <t>https://www.amazon.fr/deal/e9795284?moreDeals=1bd40a91&amp;showVariations=true&amp;pf_rd_r=HD8M1M8PNHRVQ3CKS4MA&amp;pf_rd_t=Events&amp;pf_rd_i=deals&amp;pf_rd_p=3c3f3ff2-f80e-428b-aff0-b0531c852487&amp;pf_rd_s=slot-14&amp;ref=dlx_deals_gd_dcl_img_1_e9795284_dt_sl14_87</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C11" t="n">
-        <v>1.599036199888587</v>
+        <v>1.683144710917119</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>79</v>
       </c>
       <c r="C12" t="n">
-        <v>1.835123164180666</v>
+        <v>1.919231675209198</v>
       </c>
     </row>
   </sheetData>

--- a/rapport/rapport_ihm.xlsx
+++ b/rapport/rapport_ihm.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,139 +469,20 @@
           <t>Cas de test 1</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>3.66891436545169</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>Rse Ihm</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>5.588146040660888</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.ausy.fr/fr/</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.151614812334348</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Cas de test 2</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1.919231675209198</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.ausy.fr/fr/carrieres/</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>71</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3.416220283188299</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.ausy.fr/fr/carrieres/toutes-nos-offres/q-auto/</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>73</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.66891436545169</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Cas de test 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Propreté (en %)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Consommation de CO2 (en g)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.amazon.fr/</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>32</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.903385781031009</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.amazon.fr/deals?ref_=nav_cs_gb</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>66</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.258348484014068</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.amazon.fr/deal/e9795284?moreDeals=1bd40a91&amp;showVariations=true&amp;pf_rd_r=HD8M1M8PNHRVQ3CKS4MA&amp;pf_rd_t=Events&amp;pf_rd_i=deals&amp;pf_rd_p=3c3f3ff2-f80e-428b-aff0-b0531c852487&amp;pf_rd_s=slot-14&amp;ref=dlx_deals_gd_dcl_img_1_e9795284_dt_sl14_87</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>60</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.683144710917119</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.amazon.fr/gp/your-account/order-history?ref_=ya_d_c_yo</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>79</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.919231675209198</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>
